--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.integration.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.integration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1581C02-24B5-074E-A33E-C176B8456723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB1EED-B103-BD44-B31C-B5D3347B3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53860" yWindow="-2220" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="62600" yWindow="-5040" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -226,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource.security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>modeTree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,6 +652,9 @@
   </si>
   <si>
     <t>811c75da-2a10-45ac-a077-97e11cd802f6</t>
+  </si>
+  <si>
+    <t>resource.ambient</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A2:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1319,23 +1320,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1">
       <c r="A3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="23" customFormat="1">
@@ -1343,97 +1344,97 @@
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="23" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="23" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="23" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="23" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="23" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="23" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1492,114 +1493,114 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>116</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>118</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>120</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1681,7 +1682,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="16" t="str">
         <f t="shared" ref="B28:B42" si="0">A48</f>
@@ -1692,13 +1693,13 @@
         <v>eadcafa4-f202-47dd-859a-652e02dc8dfc</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>29</v>
@@ -1710,7 +1711,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B29" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1721,13 +1722,13 @@
         <v>bfd01fb9-4b17-4fb6-89e9-24a948442f24</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>31</v>
@@ -1739,7 +1740,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1750,13 +1751,13 @@
         <v>2d6dffed-b0d4-4933-ae94-b2a7351aea59</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>33</v>
@@ -1768,7 +1769,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1779,13 +1780,13 @@
         <v>df9694cf-75a9-492d-90e0-ff566b002bcd</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>35</v>
@@ -1797,7 +1798,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1808,13 +1809,13 @@
         <v>eadcafa4-f202-47dd-859a-652e02dc8dfc</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>36</v>
@@ -1826,7 +1827,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1837,13 +1838,13 @@
         <v>2d6dffed-b0d4-4933-ae94-b2a7351aea59</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>37</v>
@@ -1855,7 +1856,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1866,13 +1867,13 @@
         <v>df9694cf-75a9-492d-90e0-ff566b002bcd</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>38</v>
@@ -1884,7 +1885,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1895,13 +1896,13 @@
         <v>703d9fb3-09b9-49a2-ae94-9e22ae48abe2</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>39</v>
@@ -1913,7 +1914,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1924,13 +1925,13 @@
         <v>703d9fb3-09b9-49a2-ae94-9e22ae48abe2</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>40</v>
@@ -1942,7 +1943,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1953,13 +1954,13 @@
         <v>703d9fb3-09b9-49a2-ae94-9e22ae48abe2</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>41</v>
@@ -1971,7 +1972,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B38" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1982,13 +1983,13 @@
         <v>d8fc8dbe-a7cc-4755-8c79-6210c17f2c92</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>42</v>
@@ -2000,7 +2001,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B39" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2011,13 +2012,13 @@
         <v>d8fc8dbe-a7cc-4755-8c79-6210c17f2c92</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>43</v>
@@ -2029,7 +2030,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2040,13 +2041,13 @@
         <v>eadcafa4-f202-47dd-859a-652e02dc8dfc</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>44</v>
@@ -2058,7 +2059,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2069,13 +2070,13 @@
         <v>eadcafa4-f202-47dd-859a-652e02dc8dfc</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>45</v>
@@ -2087,7 +2088,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2098,13 +2099,13 @@
         <v>eadcafa4-f202-47dd-859a-652e02dc8dfc</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>57</v>
@@ -2180,10 +2181,10 @@
         <v>53</v>
       </c>
       <c r="J46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2209,36 +2210,36 @@
         <v>26</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G48" s="12">
         <v>1</v>
@@ -2249,27 +2250,27 @@
         <v>1</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G49" s="12">
         <v>4</v>
@@ -2281,22 +2282,22 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G50" s="12">
         <v>8</v>
@@ -2308,22 +2309,22 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G51" s="12">
         <v>12</v>
@@ -2335,22 +2336,22 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G52" s="12">
         <v>1</v>
@@ -2362,22 +2363,22 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G53" s="12">
         <v>8</v>
@@ -2389,22 +2390,22 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G54" s="12">
         <v>12</v>
@@ -2416,22 +2417,22 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G55" s="12">
         <v>3</v>
@@ -2443,22 +2444,22 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G56" s="12">
         <v>3</v>
@@ -2470,22 +2471,22 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G57" s="12">
         <v>11</v>
@@ -2497,22 +2498,22 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G58" s="12">
         <v>5</v>
@@ -2524,22 +2525,22 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G59" s="12">
         <v>3</v>
@@ -2551,22 +2552,22 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G60" s="12">
         <v>1</v>
@@ -2578,22 +2579,22 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G61" s="12">
         <v>1</v>
@@ -2605,22 +2606,22 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="G62" s="12">
         <v>1</v>
